--- a/tests/bin/OpenRefine_exports/2_MR1_16-17.xlsx
+++ b/tests/bin/OpenRefine_exports/2_MR1_16-17.xlsx
@@ -128,7 +128,7 @@
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>42736.208333333336</v>
+        <v>42736.0</v>
       </c>
       <c r="G2" t="n">
         <v>2.0</v>
@@ -161,7 +161,7 @@
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>42767.208333333336</v>
+        <v>42767.0</v>
       </c>
       <c r="G3" t="n">
         <v>4.0</v>
@@ -194,7 +194,7 @@
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>42795.208333333336</v>
+        <v>42795.0</v>
       </c>
       <c r="G4" t="n">
         <v>4.0</v>
@@ -227,7 +227,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>42826.208333333336</v>
+        <v>42826.0</v>
       </c>
       <c r="G5" t="n">
         <v>2.0</v>
@@ -260,7 +260,7 @@
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>42887.208333333336</v>
+        <v>42887.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
